--- a/SocialDoorInstructions/3D_designs/SocialDoor_components.xlsx
+++ b/SocialDoorInstructions/3D_designs/SocialDoor_components.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiruc\OneDrive\Documents\GitHub\Chen2025\SocialDoorInstructions\3D_designs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DB0B9-0CC4-4760-9A04-1678DF2768C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5370" yWindow="4260" windowWidth="14430" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Adafruit Feather M0 Adalogger</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/2796?srsltid=AfmBOoong0YLzIKUKhxX7jiMX02rDhzZnZLHV_EoBE-kJAqCxSdCUC3a</t>
+  </si>
+  <si>
+    <t>Adafruit FeatherWing OLED - 128x64 OLED Add-on For Feather - STEMMA QT / Qwiic</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4650</t>
+  </si>
+  <si>
+    <t>Adafruit VL6180X Time of Flight Distance Ranging Sensor (VL6180) - STEMMA QT</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3316</t>
+  </si>
+  <si>
+    <t>Custom printed circuit board</t>
+  </si>
+  <si>
+    <t>See "CircuitBoard" folder</t>
+  </si>
+  <si>
+    <t>FS90R 360 Degree Continuous Rotation Micro Servo Moto</t>
+  </si>
+  <si>
+    <t>150mm MGN9 Miniature Linear Sliding Guide Rail with 1PCS MGN9C Stainless Steel Carriage Block</t>
+  </si>
+  <si>
+    <t>Lithium Ion Battery Pack - 3.7V 4400mAh</t>
+  </si>
+  <si>
+    <t>Adafruit PCF8523 Real Time Clock Breakout Board - STEMMA QT / Qwiic</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5189</t>
+  </si>
+  <si>
+    <t>See "LaserCutting" folder</t>
+  </si>
+  <si>
+    <t>3D prints (Doorframe, sliding door, servo gear, door holder &amp; ring)</t>
+  </si>
+  <si>
+    <t>Metal parts (interaction window, sensor protector)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +122,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +412,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BBDE3462-D81D-4A78-AA37-1DE80A02871F}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{4A645F50-03E2-4FA3-AAC9-FE6CCBD32B45}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{EF9E290A-5D24-47D4-913C-805FD4A1BFF6}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{9D86C1BC-870D-42EE-AA4E-CF89FF6B4720}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SocialDoorInstructions/3D_designs/SocialDoor_components.xlsx
+++ b/SocialDoorInstructions/3D_designs/SocialDoor_components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiruc\OneDrive\Documents\GitHub\Chen2025\SocialDoorInstructions\3D_designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DB0B9-0CC4-4760-9A04-1678DF2768C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63033E21-223D-43FD-8238-609E72C251DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4260" windowWidth="14430" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="4230" windowWidth="14430" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Component</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Metal parts (interaction window, sensor protector)</t>
+  </si>
+  <si>
+    <t>Micro Limit Switch KW12-3 (AC 250V 5A SPDT, 1 NO 1 NC) with Roller Lever Arm</t>
+  </si>
+  <si>
+    <t>SD card</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +516,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -518,7 +524,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -526,13 +532,29 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SocialDoorInstructions/3D_designs/SocialDoor_components.xlsx
+++ b/SocialDoorInstructions/3D_designs/SocialDoor_components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiruc\OneDrive\Documents\GitHub\Chen2025\SocialDoorInstructions\3D_designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63033E21-223D-43FD-8238-609E72C251DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A0CE62-4079-4AA0-9B54-227B163AF962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4230" windowWidth="14430" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="3525" windowWidth="14430" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Component</t>
   </si>
@@ -60,12 +60,6 @@
     <t>See "CircuitBoard" folder</t>
   </si>
   <si>
-    <t>FS90R 360 Degree Continuous Rotation Micro Servo Moto</t>
-  </si>
-  <si>
-    <t>150mm MGN9 Miniature Linear Sliding Guide Rail with 1PCS MGN9C Stainless Steel Carriage Block</t>
-  </si>
-  <si>
     <t>Lithium Ion Battery Pack - 3.7V 4400mAh</t>
   </si>
   <si>
@@ -88,6 +82,18 @@
   </si>
   <si>
     <t>SD card</t>
+  </si>
+  <si>
+    <t>9mm x 150mm LML9B Miniature Linear Sliding Guide Rail with a 2cm x 3 cm Stainless Steel Carriage Block</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07GQ8YNDL?th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07X142VGC</t>
+  </si>
+  <si>
+    <t>Feetech FS90R 360 Degree Continuous Rotation Micro Servo Moto</t>
   </si>
 </sst>
 </file>
@@ -421,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,13 +462,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,7 +506,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -508,23 +514,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -532,7 +544,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -540,18 +552,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -563,6 +575,8 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{4A645F50-03E2-4FA3-AAC9-FE6CCBD32B45}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{EF9E290A-5D24-47D4-913C-805FD4A1BFF6}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{9D86C1BC-870D-42EE-AA4E-CF89FF6B4720}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{7B5CAB49-C5E7-42A6-809F-C3526AF4BF20}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{C1EF363D-3562-4B4D-BDCB-1968D0487C18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
